--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +35,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -65,19 +71,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -458,162 +470,146 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.005" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Klyde</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>9.633851672825897e+17</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Rose_</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>6.910006651867628e+17</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>FabLaBot</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>9.627789738074481e+17</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Soline</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>6.884206415603304e+17</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Rose_</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>6.910006651867628e+17</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>athoms</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>4.999556384414761e+17</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Soline</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>6.884206415603304e+17</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MorganKryze</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>4.220347689521644e+17</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>athoms</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>4.999556384414761e+17</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Blueazerty</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>3.264133632424673e+17</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>MorganKryze</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>4.220347689521644e+17</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Earl</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2.307708786469765e+17</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Blueazerty</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>3.264133632424673e+17</v>
-      </c>
-      <c r="C8" s="5" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>2.219475688279245e+17</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Earl</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>2.307708786469765e+17</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Anne</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2.219475688279245e+17</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -623,7 +619,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -634,14 +630,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -652,14 +648,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -670,14 +666,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -688,14 +684,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -706,14 +702,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -724,14 +720,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -742,6 +738,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="NomId" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -71,28 +71,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -464,152 +458,152 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="C1" s="8" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Rose_</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>6.910006651867628e+17</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Soline</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>6.884206415603304e+17</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="7" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>athoms</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>4.999556384414761e+17</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>MorganKryze</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>4.220347689521644e+17</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Blueazerty</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>3.264133632424673e+17</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Earl</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>2.307708786469765e+17</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Anne</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>2.219475688279245e+17</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,14 +652,24 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,12 +35,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -71,21 +65,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -462,11 +453,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="16.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
@@ -482,7 +473,7 @@
           <t>Id</t>
         </is>
       </c>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="4" t="n"/>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -652,22 +643,84 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr"/>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>whynot</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>riz</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>moula</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>moulaga</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -1,46 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="NomId" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Rose_playlist" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Solineplaylist" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="athomsplaylist" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MorganKryzeplaylist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Blueazertyplaylist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Earlplaylist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Anneplaylist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet r:id="rId1" sheetId="1" name="NomId"/>
+    <sheet r:id="rId2" sheetId="2" name="Rose_playlist"/>
+    <sheet r:id="rId3" sheetId="3" name="Solineplaylist"/>
+    <sheet r:id="rId4" sheetId="4" name="athomsplaylist"/>
+    <sheet r:id="rId5" sheetId="5" name="MorganKryzeplaylist"/>
+    <sheet r:id="rId6" sheetId="6" name="Blueazertyplaylist"/>
+    <sheet r:id="rId7" sheetId="7" name="Earlplaylist"/>
+    <sheet r:id="rId8" sheetId="8" name="Anneplaylist"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
+  </si>
+  <si>
+    <t>fab</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_9ihlR3SHOs</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Rose_</t>
+  </si>
+  <si>
+    <t>Soline</t>
+  </si>
+  <si>
+    <t>athoms</t>
+  </si>
+  <si>
+    <t>MorganKryze</t>
+  </si>
+  <si>
+    <t>Blueazerty</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,98 +107,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,159 +421,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col min="1" max="1" style="2" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Rose_</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>6.910006651867628e+17</v>
-      </c>
-      <c r="C2" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>691000665186762800</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Soline</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>6.884206415603304e+17</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>688420641560330400</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>athoms</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>4.999556384414761e+17</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>499955638441476100</v>
+      </c>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>MorganKryze</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>4.220347689521644e+17</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>422034768952164400</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Blueazerty</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.264133632424673e+17</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>326413363242467300</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Earl</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.307708786469765e+17</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>230770878646976500</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Anne</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.219475688279245e+17</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>221947568827924500</v>
+      </c>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,125 +560,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>whynot</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>pk</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>riz</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>moula</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>moulaga</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,72 +651,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -1,90 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="NomId"/>
-    <sheet r:id="rId2" sheetId="2" name="Rose_playlist"/>
-    <sheet r:id="rId3" sheetId="3" name="Solineplaylist"/>
-    <sheet r:id="rId4" sheetId="4" name="athomsplaylist"/>
-    <sheet r:id="rId5" sheetId="5" name="MorganKryzeplaylist"/>
-    <sheet r:id="rId6" sheetId="6" name="Blueazertyplaylist"/>
-    <sheet r:id="rId7" sheetId="7" name="Earlplaylist"/>
-    <sheet r:id="rId8" sheetId="8" name="Anneplaylist"/>
+    <sheet name="NomId" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rose_playlist" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Solineplaylist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="athomsplaylist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MorganKryzeplaylist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Blueazertyplaylist" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Earlplaylist" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Anneplaylist" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pw-0pbY9JeU</t>
-  </si>
-  <si>
-    <t>fab</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_9ihlR3SHOs</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Rose_</t>
-  </si>
-  <si>
-    <t>Soline</t>
-  </si>
-  <si>
-    <t>athoms</t>
-  </si>
-  <si>
-    <t>MorganKryze</t>
-  </si>
-  <si>
-    <t>Blueazerty</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,33 +63,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,138 +442,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Rose_</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>6.910006651867628e+17</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Soline</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>6.884206415603304e+17</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>athoms</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>4.999556384414761e+17</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>MorganKryze</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>4.220347689521644e+17</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Blueazerty</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.264133632424673e+17</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Earl</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2.307708786469765e+17</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>691000665186762800</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2.219475688279245e+17</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>688420641560330400</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>499955638441476100</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>422034768952164400</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>326413363242467300</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>230770878646976500</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>221947568827924500</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -560,90 +580,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Chill</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Lofi  Girl</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -651,60 +675,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/playlist.xlsx
+++ b/playlist.xlsx
@@ -65,9 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -455,124 +458,124 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="C1" s="4" t="n"/>
+      <c r="C1" s="5" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Rose_</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>6.910006651867628e+17</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Soline</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>6.884206415603304e+17</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>athoms</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>4.999556384414761e+17</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>MorganKryze</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>4.220347689521644e+17</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Blueazerty</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>3.264133632424673e+17</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Earl</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>2.307708786469765e+17</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Anne</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>2.219475688279245e+17</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -621,7 +624,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,45 +632,73 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Chill</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>BoyWithUkeVEVO</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>BoyWithUke - Understand (Official Video)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Scared of the Dark</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Kind of Sick of Life</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>One hour of songs from BoyWithUke</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Lofi  Girl</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
